--- a/biology/Zoologie/Anqasha_picta/Anqasha_picta.xlsx
+++ b/biology/Zoologie/Anqasha_picta/Anqasha_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anqasha picta est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anqasha picta est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région d'Ancash au Pérou[1],[2]. Elle se rencontre dans la vallée du río Santa dans les provinces de Huaylas et de Yungay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région d'Ancash au Pérou,. Elle se rencontre dans la vallée du río Santa dans les provinces de Huaylas et de Yungay.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 14 mm[3].
-Le mâle décrit par Sherwood et Gabriel en 2022 mesure 15,2 mm[4].
-La femelle décrite par Kaderka en 2023 mesure 23,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 14 mm.
+Le mâle décrit par Sherwood et Gabriel en 2022 mesure 15,2 mm.
+La femelle décrite par Kaderka en 2023 mesure 23,5 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hapalopus pictus par Pocock en 1903. Elle est placée dans le genre Homoeomma par Gerschman et Schiapelli en 1973[5] puis dans le genre Anqasha par Sherwood et Gabriel en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hapalopus pictus par Pocock en 1903. Elle est placée dans le genre Homoeomma par Gerschman et Schiapelli en 1973 puis dans le genre Anqasha par Sherwood et Gabriel en 2022.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication original</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1903 : « On some genera and species of South American Aviculariidae. » Annals and Magazine of Natural History, sér. 7, vol. 11, p. 81-115 (texte intégral).</t>
         </is>
